--- a/WCMC.Normalization/inst/www/template.xlsx
+++ b/WCMC.Normalization/inst/www/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="59">
   <si>
     <t>index</t>
   </si>
@@ -196,99 +196,6 @@
   </si>
   <si>
     <t>factor2</t>
-  </si>
-  <si>
-    <t>factor32</t>
-  </si>
-  <si>
-    <t>factor31</t>
-  </si>
-  <si>
-    <t>factor30</t>
-  </si>
-  <si>
-    <t>factor29</t>
-  </si>
-  <si>
-    <t>factor28</t>
-  </si>
-  <si>
-    <t>factor27</t>
-  </si>
-  <si>
-    <t>factor26</t>
-  </si>
-  <si>
-    <t>factor25</t>
-  </si>
-  <si>
-    <t>factor24</t>
-  </si>
-  <si>
-    <t>factor23</t>
-  </si>
-  <si>
-    <t>factor22</t>
-  </si>
-  <si>
-    <t>factor21</t>
-  </si>
-  <si>
-    <t>factor20</t>
-  </si>
-  <si>
-    <t>factor19</t>
-  </si>
-  <si>
-    <t>factor18</t>
-  </si>
-  <si>
-    <t>factor17</t>
-  </si>
-  <si>
-    <t>factor16</t>
-  </si>
-  <si>
-    <t>factor15</t>
-  </si>
-  <si>
-    <t>factor14</t>
-  </si>
-  <si>
-    <t>factor13</t>
-  </si>
-  <si>
-    <t>factor12</t>
-  </si>
-  <si>
-    <t>factor11</t>
-  </si>
-  <si>
-    <t>factor10</t>
-  </si>
-  <si>
-    <t>factor9</t>
-  </si>
-  <si>
-    <t>factor8</t>
-  </si>
-  <si>
-    <t>factor7</t>
-  </si>
-  <si>
-    <t>factor6</t>
-  </si>
-  <si>
-    <t>factor5</t>
-  </si>
-  <si>
-    <t>factor4</t>
-  </si>
-  <si>
-    <t>factor3</t>
-  </si>
-  <si>
-    <t>factor0</t>
   </si>
 </sst>
 </file>
@@ -712,17 +619,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1011,7 +918,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -1300,7 +1207,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1589,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
@@ -1878,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
@@ -2167,7 +2074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
@@ -2345,118 +2252,118 @@
         <v>7</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BT6" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="BU6" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="BV6" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="BW6" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="BZ6" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="CE6" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="CG6" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="CK6" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="CL6" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="CN6" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="CO6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="CP6" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="CR6" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="CS6" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
@@ -2745,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3038,7 +2945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3331,7 +3238,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3624,7 +3531,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -3917,7 +3824,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4210,7 +4117,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -4503,7 +4410,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -4796,7 +4703,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -5089,7 +4996,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -5382,7 +5289,7 @@
         <v>10904</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -5675,7 +5582,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -5968,7 +5875,7 @@
         <v>9880</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -6261,7 +6168,7 @@
         <v>25348</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -6554,7 +6461,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -6847,7 +6754,7 @@
         <v>7421</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -7140,7 +7047,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -7433,7 +7340,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -7726,7 +7633,7 @@
         <v>5645</v>
       </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -8019,7 +7926,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -8312,7 +8219,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -8605,7 +8512,7 @@
         <v>8743</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -8898,7 +8805,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -9191,7 +9098,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -9484,7 +9391,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -9777,7 +9684,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -10070,7 +9977,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -10363,7 +10270,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -10656,7 +10563,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -10949,7 +10856,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -11242,7 +11149,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -11535,7 +11442,7 @@
         <v>19684</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -11828,7 +11735,7 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -12121,7 +12028,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -12414,7 +12321,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -12707,7 +12614,7 @@
         <v>10317</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -13000,7 +12907,7 @@
         <v>5224</v>
       </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -13293,7 +13200,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -13586,7 +13493,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -13879,7 +13786,7 @@
         <v>27673</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -14172,7 +14079,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -14465,7 +14372,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>40</v>
       </c>
